--- a/outputs/chosen_items.xlsx
+++ b/outputs/chosen_items.xlsx
@@ -452,13 +452,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
